--- a/output/inference_results/test_sheets/batch_003/test_sheet (29).xlsx
+++ b/output/inference_results/test_sheets/batch_003/test_sheet (29).xlsx
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1白细胞</t>
+          <t>白细胞</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10 9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2红细胞</t>
+          <t>红细胞</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -484,7 +484,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1012/L</t>
+          <t>10^12/L</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -497,7 +497,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3血红蛋白</t>
+          <t>血红蛋白</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4血小板</t>
+          <t>血小板</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10~9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -543,12 +543,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5红细胞压积</t>
+          <t>红细胞压积</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>34.5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -562,12 +562,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6平均红细胞体积</t>
+          <t>平均红细胞体积</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>77.7fl</t>
+          <t>77.7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -581,12 +581,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7平均红细胞血红蛋白量</t>
+          <t>平均血红蛋白量</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>26.4pg</t>
+          <t>26.4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -600,7 +600,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8平均红细胞血红蛋白浓度</t>
+          <t>平均血红蛋白浓度</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -623,12 +623,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9淋巴细胞百分比</t>
+          <t>淋巴细胞百分率</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17.4←%</t>
+          <t>17.4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -642,7 +642,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0红细胞分布宽度（SD）</t>
+          <t>红细胞分布宽度</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>fL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -665,7 +665,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1红细胞分布宽度（CV）</t>
+          <t>红细胞分布宽度</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2血小板分布宽度</t>
+          <t>血小板分布宽度</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -694,11 +694,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
@@ -715,7 +711,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14中性粒细胞百分比</t>
+          <t>中性粒细胞百分率</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -734,7 +730,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>：15</t>
+          <t>：</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -753,14 +749,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16嗜酸细胞百分比</t>
+          <t>嗜酸性粒细胞百分率</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -772,14 +768,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17嗜碱细胞百分比</t>
+          <t>嗜碱性粒细胞百分率</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -791,7 +787,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18淋巴细胞绝对值</t>
+          <t>淋巴细胞绝对值</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -803,14 +799,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10 9/L1-3</t>
+          <t>1-3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19单</t>
+          <t>单</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -822,14 +818,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>109/L0.07-0.33</t>
+          <t>0.07-0.33</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20口</t>
+          <t>口</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -841,16 +837,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10^9/L 3-5</t>
+          <t>3-5</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
@@ -860,14 +852,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10 9/L0.05-0.5</t>
+          <t>0.05-0.5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22口</t>
+          <t>口</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -879,7 +871,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>109/L0.02-0.05</t>
+          <t>0.02-0.05</t>
         </is>
       </c>
     </row>
